--- a/results/mp/tinybert/dilemma/confidence/168/stop-words-topk-masking-0.1/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/168/stop-words-topk-masking-0.1/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="46">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,6 +40,9 @@
     <t>name</t>
   </si>
   <si>
+    <t>evil</t>
+  </si>
+  <si>
     <t>illegal</t>
   </si>
   <si>
@@ -64,10 +67,16 @@
     <t>addicted</t>
   </si>
   <si>
+    <t>crazy</t>
+  </si>
+  <si>
     <t>shit</t>
   </si>
   <si>
-    <t>crazy</t>
+    <t>hate</t>
+  </si>
+  <si>
+    <t>fuck</t>
   </si>
   <si>
     <t>scary</t>
@@ -82,48 +91,45 @@
     <t>bad</t>
   </si>
   <si>
-    <t>[UNK]</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
     <t>amazing</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>great</t>
   </si>
   <si>
-    <t>best</t>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>powerful</t>
   </si>
   <si>
     <t>good</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>powerful</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>important</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
     <t>first</t>
   </si>
   <si>
+    <t>worth</t>
+  </si>
+  <si>
     <t>wow</t>
   </si>
   <si>
-    <t>worth</t>
-  </si>
-  <si>
     <t>new</t>
   </si>
   <si>
@@ -133,16 +139,13 @@
     <t>really</t>
   </si>
   <si>
-    <t>watching</t>
+    <t>netflix</t>
   </si>
   <si>
     <t>media</t>
   </si>
   <si>
-    <t>netflix</t>
-  </si>
-  <si>
-    <t>watch</t>
+    <t>’</t>
   </si>
   <si>
     <t>…</t>
@@ -506,7 +509,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q22"/>
+  <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -514,10 +517,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -575,13 +578,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9423076923076923</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -593,10 +596,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -625,13 +628,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9393939393939394</v>
+        <v>0.9423076923076923</v>
       </c>
       <c r="C4">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="D4">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -643,19 +646,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K4">
         <v>0.9</v>
       </c>
       <c r="L4">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="M4">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -667,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -675,13 +678,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="C5">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="D5">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -693,19 +696,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K5">
-        <v>0.9</v>
+        <v>0.88</v>
       </c>
       <c r="L5">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="M5">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -717,7 +720,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -725,13 +728,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C6">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D6">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -743,19 +746,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K6">
-        <v>0.7333333333333333</v>
+        <v>0.7719298245614035</v>
       </c>
       <c r="L6">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="M6">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -767,7 +770,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -775,7 +778,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="C7">
         <v>12</v>
@@ -793,19 +796,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K7">
-        <v>0.7192982456140351</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="L7">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M7">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -817,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -825,13 +828,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7368421052631579</v>
+        <v>0.75</v>
       </c>
       <c r="C8">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D8">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -843,19 +846,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K8">
-        <v>0.6842105263157895</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L8">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M8">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -867,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>6</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -875,13 +878,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7058823529411765</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C9">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D9">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -896,7 +899,7 @@
         <v>5</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K9">
         <v>0.6551724137931034</v>
@@ -925,13 +928,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="C10">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D10">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -943,19 +946,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K10">
-        <v>0.6166666666666667</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="L10">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="M10">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -967,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -975,38 +978,38 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6595744680851063</v>
+        <v>0.675</v>
       </c>
       <c r="C11">
+        <v>27</v>
+      </c>
+      <c r="D11">
+        <v>27</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>13</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K11">
+        <v>0.5166666666666667</v>
+      </c>
+      <c r="L11">
         <v>31</v>
       </c>
-      <c r="D11">
+      <c r="M11">
         <v>31</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>16</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K11">
-        <v>0.5555555555555556</v>
-      </c>
-      <c r="L11">
-        <v>15</v>
-      </c>
-      <c r="M11">
-        <v>15</v>
-      </c>
       <c r="N11">
         <v>1</v>
       </c>
@@ -1017,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1025,13 +1028,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5714285714285714</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="C12">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D12">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1043,19 +1046,19 @@
         <v>0</v>
       </c>
       <c r="H12">
+        <v>13</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K12">
+        <v>0.4545454545454545</v>
+      </c>
+      <c r="L12">
         <v>15</v>
       </c>
-      <c r="J12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K12">
-        <v>0.4242424242424243</v>
-      </c>
-      <c r="L12">
-        <v>14</v>
-      </c>
       <c r="M12">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1067,7 +1070,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1075,13 +1078,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5652173913043478</v>
+        <v>0.6170212765957447</v>
       </c>
       <c r="C13">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="D13">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1093,19 +1096,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K13">
-        <v>0.375</v>
+        <v>0.3611111111111111</v>
       </c>
       <c r="L13">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M13">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1117,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1125,13 +1128,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="C14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1143,19 +1146,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K14">
         <v>0.3333333333333333</v>
       </c>
       <c r="L14">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="M14">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1167,7 +1170,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1175,13 +1178,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.4285714285714285</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="C15">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D15">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1193,19 +1196,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K15">
-        <v>0.2372881355932203</v>
+        <v>0.288135593220339</v>
       </c>
       <c r="L15">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="M15">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1217,7 +1220,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1225,13 +1228,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.3846153846153846</v>
+        <v>0.5507246376811594</v>
       </c>
       <c r="C16">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="D16">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1243,19 +1246,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K16">
-        <v>0.2213114754098361</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="L16">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M16">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1267,7 +1270,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1275,37 +1278,37 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.04026845637583892</v>
+        <v>0.5</v>
       </c>
       <c r="C17">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D17">
         <v>13</v>
       </c>
       <c r="E17">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="G17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17">
-        <v>286</v>
+        <v>13</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K17">
-        <v>0.1263157894736842</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="L17">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="M17">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1317,21 +1320,45 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:17">
+      <c r="A18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18">
+        <v>0.4642857142857143</v>
+      </c>
+      <c r="C18">
+        <v>13</v>
+      </c>
+      <c r="D18">
+        <v>13</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>15</v>
+      </c>
       <c r="J18" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K18">
-        <v>0.03812316715542522</v>
+        <v>0.02592592592592593</v>
       </c>
       <c r="L18">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M18">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1343,21 +1370,45 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>328</v>
+        <v>526</v>
       </c>
     </row>
     <row r="19" spans="1:17">
+      <c r="A19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19">
+        <v>0.358974358974359</v>
+      </c>
+      <c r="C19">
+        <v>14</v>
+      </c>
+      <c r="D19">
+        <v>14</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>25</v>
+      </c>
       <c r="J19" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K19">
-        <v>0.03313253012048193</v>
+        <v>0.02560240963855422</v>
       </c>
       <c r="L19">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="M19">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1369,21 +1420,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>642</v>
+        <v>647</v>
       </c>
     </row>
     <row r="20" spans="1:17">
       <c r="J20" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K20">
-        <v>0.02407407407407407</v>
+        <v>0.02176696542893726</v>
       </c>
       <c r="L20">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="M20">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1395,21 +1446,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>527</v>
+        <v>764</v>
       </c>
     </row>
     <row r="21" spans="1:17">
       <c r="J21" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K21">
-        <v>0.01948051948051948</v>
+        <v>0.01267281105990783</v>
       </c>
       <c r="L21">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="M21">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1421,33 +1472,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="J22" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K22">
-        <v>0.009792626728110598</v>
-      </c>
-      <c r="L22">
-        <v>17</v>
-      </c>
-      <c r="M22">
-        <v>17</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>1719</v>
+        <v>1714</v>
       </c>
     </row>
   </sheetData>
